--- a/rel_geral_admin.xlsx
+++ b/rel_geral_admin.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> teste</t>
+          <t>Guilherme teste</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guilherme@cliente.com</t>
+          <t>gui_1703@hotmail.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-12-16</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -474,23 +474,46 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> teste</t>
+          <t>thiago teste</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guilherme@cliente.com</t>
+          <t>thiago@teste.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-12-16</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Thiago barreto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>thi@teste.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2022-12-03</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>150</v>
       </c>
     </row>
